--- a/files/homework/homework_3_answer.xlsx
+++ b/files/homework/homework_3_answer.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="12705"/>
+    <workbookView windowWidth="27240" windowHeight="12705" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="例6-6" sheetId="1" r:id="rId1"/>
+    <sheet name="第一题" sheetId="1" r:id="rId1"/>
+    <sheet name="第二题" sheetId="2" r:id="rId2"/>
+    <sheet name="第三题" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="true" iterateCount="1" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>期数</t>
   </si>
@@ -38,6 +40,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>现值</t>
     </r>
     <r>
@@ -52,6 +60,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>现值</t>
     </r>
     <r>
@@ -69,6 +83,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>PV_8%_</t>
     </r>
     <r>
@@ -89,6 +109,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>IRR_</t>
     </r>
     <r>
@@ -104,26 +130,86 @@
   <si>
     <t>年还款额</t>
   </si>
+  <si>
+    <t>张三为了买一部iphone 12 黑色 64G的手机以及配套的充电器和耳机，去某网贷平台借款6500元，按月还款计划如下所示，请使用年化内部收益率计算该笔借款的年化利率。结果保留两位小数。</t>
+  </si>
+  <si>
+    <t>借款金额</t>
+  </si>
+  <si>
+    <t>年IRR</t>
+  </si>
+  <si>
+    <t>还款金额</t>
+  </si>
+  <si>
+    <t>现值</t>
+  </si>
+  <si>
+    <t>净现值</t>
+  </si>
+  <si>
+    <t>解法1：</t>
+  </si>
+  <si>
+    <t>解法2：</t>
+  </si>
+  <si>
+    <t>月IRR</t>
+  </si>
+  <si>
+    <t>李四看到好友张三买了一部新的Iphone 12手机，自己也想买一部，他在某电商购物平台使用分期付款方式购买了一部Iphone 12 白色 64G手机，总价6299，但是李四手头没有这么多现金，于是选择了分24期购买该手机，每期付款金额为301.83元，每期为1个月，请使用年化内部收益率计算该笔分期购物的年化利率。结果保留两位小数。</t>
+  </si>
+  <si>
+    <t>手机价格</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000000%"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -158,8 +244,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,13 +262,6 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -205,7 +292,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,27 +322,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,8 +338,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,22 +368,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,19 +407,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,61 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,13 +515,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,59 +575,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,6 +671,30 @@
         <color auto="true"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="true"/>
+      </left>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="true"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -562,23 +714,10 @@
       <right style="medium">
         <color auto="true"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
         <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="true"/>
-      </left>
-      <right style="medium">
-        <color auto="true"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="true"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -606,32 +745,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="true"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="true"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="true"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -644,43 +763,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,9 +795,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,245 +842,371 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="20" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="19" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="9" xfId="9" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="14" xfId="9" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="13" xfId="9" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="10" xfId="9" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="11" xfId="9" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="9" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="9" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="5" xfId="9" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,374 +1869,374 @@
   <sheetPr/>
   <dimension ref="C14:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="7.375" style="1" customWidth="true"/>
-    <col min="4" max="4" width="10.875" style="1" customWidth="true"/>
-    <col min="5" max="5" width="11.875" style="1" customWidth="true"/>
-    <col min="6" max="6" width="12.875" style="1" customWidth="true"/>
-    <col min="7" max="7" width="11.75" style="1" customWidth="true"/>
-    <col min="8" max="8" width="17.75" style="1" customWidth="true"/>
-    <col min="9" max="9" width="13.5" style="1" customWidth="true"/>
-    <col min="10" max="10" width="10.25" style="1" customWidth="true"/>
-    <col min="11" max="11" width="12.5" style="1" customWidth="true"/>
-    <col min="12" max="12" width="13.375" style="1" customWidth="true"/>
-    <col min="13" max="13" width="12.625" style="1"/>
-    <col min="14" max="14" width="10.5" style="1" customWidth="true"/>
-    <col min="15" max="16" width="12.25" style="1" customWidth="true"/>
-    <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="11.125" style="1" customWidth="true"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="48"/>
+    <col min="3" max="3" width="7.375" style="48" customWidth="true"/>
+    <col min="4" max="4" width="10.875" style="48" customWidth="true"/>
+    <col min="5" max="5" width="11.875" style="48" customWidth="true"/>
+    <col min="6" max="6" width="12.875" style="48" customWidth="true"/>
+    <col min="7" max="7" width="11.75" style="48" customWidth="true"/>
+    <col min="8" max="8" width="17.75" style="48" customWidth="true"/>
+    <col min="9" max="9" width="13.5" style="48" customWidth="true"/>
+    <col min="10" max="10" width="10.25" style="48" customWidth="true"/>
+    <col min="11" max="11" width="12.5" style="48" customWidth="true"/>
+    <col min="12" max="12" width="13.375" style="48" customWidth="true"/>
+    <col min="13" max="13" width="12.625" style="48"/>
+    <col min="14" max="14" width="10.5" style="48" customWidth="true"/>
+    <col min="15" max="16" width="12.25" style="48" customWidth="true"/>
+    <col min="17" max="17" width="9" style="48"/>
+    <col min="18" max="18" width="11.125" style="48" customWidth="true"/>
+    <col min="19" max="16384" width="9" style="48"/>
   </cols>
   <sheetData>
     <row r="14" ht="18.75" spans="3:7">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" ht="18" spans="3:7">
-      <c r="C15" s="3">
+      <c r="C15" s="50">
         <v>15</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="50">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="50">
         <v>100</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="57">
         <v>0.08</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="57">
         <v>0.05</v>
       </c>
     </row>
     <row r="16" ht="14.25"/>
     <row r="17" ht="30" customHeight="true" spans="3:12">
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="67" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="21" customHeight="true" spans="3:12">
-      <c r="C18" s="6">
+      <c r="C18" s="53">
         <v>0</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="54">
         <f>-D15</f>
         <v>-1000</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="54">
         <f>D18</f>
         <v>-1000</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="60">
         <f>D18</f>
         <v>-1000</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="61">
         <f>SUM(E19:E33)</f>
         <v>855.947868792637</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="62">
         <f>PV(F15,C15,-E15)</f>
         <v>855.947868792638</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="68">
         <f>SUM(F18:F33)</f>
         <v>-0.232280788149289</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="69">
         <v>0.0556</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="70">
         <f>IRR(D18:D33)</f>
         <v>0.0555649747036306</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="71">
         <f>D15*G15*(1+G15)^15/((1+G15)^C15-1)</f>
         <v>96.3422876092443</v>
       </c>
     </row>
     <row r="19" ht="18" spans="3:6">
-      <c r="C19" s="6">
+      <c r="C19" s="53">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="54">
         <v>100</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="63">
         <f>D19/(1+$F$15)^C19</f>
         <v>92.5925925925926</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="64">
         <f>D19/(1+$J$18)^C19</f>
         <v>94.732853353543</v>
       </c>
     </row>
     <row r="20" ht="18" spans="3:6">
-      <c r="C20" s="6">
+      <c r="C20" s="53">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="54">
         <v>100</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="63">
         <f t="shared" ref="E20:E33" si="0">D20/(1+$F$15)^C20</f>
         <v>85.7338820301783</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="64">
         <f t="shared" ref="F20:F33" si="1">D20/(1+$J$18)^C20</f>
         <v>89.7431350450388</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:6">
-      <c r="C21" s="6">
+      <c r="C21" s="53">
         <v>3</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="54">
         <v>100</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="63">
         <f t="shared" si="0"/>
         <v>79.383224102017</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="64">
         <f t="shared" si="1"/>
         <v>85.0162325170887</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:6">
-      <c r="C22" s="6">
+      <c r="C22" s="53">
         <v>4</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="54">
         <v>100</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="63">
         <f t="shared" si="0"/>
         <v>73.5029852796453</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="64">
         <f t="shared" si="1"/>
         <v>80.5383028771208</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:6">
-      <c r="C23" s="6">
+      <c r="C23" s="53">
         <v>5</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="54">
         <v>100</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="63">
         <f t="shared" si="0"/>
         <v>68.0583197033753</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="64">
         <f t="shared" si="1"/>
         <v>76.2962323580151</v>
       </c>
     </row>
     <row r="24" ht="18" spans="3:6">
-      <c r="C24" s="6">
+      <c r="C24" s="53">
         <v>6</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="54">
         <v>100</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="63">
         <f t="shared" si="0"/>
         <v>63.0169626883105</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="64">
         <f t="shared" si="1"/>
         <v>72.2775979139969</v>
       </c>
     </row>
     <row r="25" ht="18" spans="3:6">
-      <c r="C25" s="6">
+      <c r="C25" s="53">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="54">
         <v>100</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="63">
         <f t="shared" si="0"/>
         <v>58.3490395262134</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="64">
         <f t="shared" si="1"/>
         <v>68.4706308393301</v>
       </c>
     </row>
     <row r="26" ht="18" spans="3:6">
-      <c r="C26" s="6">
+      <c r="C26" s="53">
         <v>8</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="54">
         <v>100</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="63">
         <f t="shared" si="0"/>
         <v>54.0268884501976</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="64">
         <f t="shared" si="1"/>
         <v>64.8641823032684</v>
       </c>
     </row>
     <row r="27" ht="18" spans="3:6">
-      <c r="C27" s="6">
+      <c r="C27" s="53">
         <v>9</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="54">
         <v>100</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="63">
         <f t="shared" si="0"/>
         <v>50.0248967131459</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="64">
         <f t="shared" si="1"/>
         <v>61.44769070033</v>
       </c>
     </row>
     <row r="28" ht="18" spans="3:6">
-      <c r="C28" s="6">
+      <c r="C28" s="53">
         <v>10</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="54">
         <v>100</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="63">
         <f t="shared" si="0"/>
         <v>46.3193488084684</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="64">
         <f t="shared" si="1"/>
         <v>58.2111507202823</v>
       </c>
     </row>
     <row r="29" ht="18" spans="3:6">
-      <c r="C29" s="6">
+      <c r="C29" s="53">
         <v>11</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="54">
         <v>100</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="63">
         <f t="shared" si="0"/>
         <v>42.8882859337671</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="64">
         <f t="shared" si="1"/>
         <v>55.145084047255</v>
       </c>
     </row>
     <row r="30" ht="18" spans="3:6">
-      <c r="C30" s="6">
+      <c r="C30" s="53">
         <v>12</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="54">
         <v>100</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="63">
         <f t="shared" si="0"/>
         <v>39.7113758645991</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="64">
         <f t="shared" si="1"/>
         <v>52.2405116021741</v>
       </c>
     </row>
     <row r="31" ht="18" spans="3:6">
-      <c r="C31" s="6">
+      <c r="C31" s="53">
         <v>13</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="54">
         <v>100</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="63">
         <f t="shared" si="0"/>
         <v>36.7697924672214</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="64">
         <f t="shared" si="1"/>
         <v>49.4889272472282</v>
       </c>
     </row>
     <row r="32" ht="18" spans="3:6">
-      <c r="C32" s="6">
+      <c r="C32" s="53">
         <v>14</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="54">
         <v>100</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="63">
         <f t="shared" si="0"/>
         <v>34.0461041363161</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="64">
         <f t="shared" si="1"/>
         <v>46.8822728753583</v>
       </c>
     </row>
     <row r="33" ht="18.75" spans="3:6">
-      <c r="C33" s="8">
+      <c r="C33" s="55">
         <v>15</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="56">
         <v>100</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="65">
         <f t="shared" si="0"/>
         <v>31.524170496589</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="66">
         <f t="shared" si="1"/>
         <v>44.412914811821</v>
       </c>
@@ -1995,4 +2246,1165 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:L38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="true"/>
+    <col min="4" max="4" width="5.875" style="1" customWidth="true"/>
+    <col min="5" max="5" width="14" style="1" customWidth="true"/>
+    <col min="6" max="6" width="15" style="1" customWidth="true"/>
+    <col min="7" max="7" width="9.625" style="1" customWidth="true"/>
+    <col min="8" max="8" width="20.5" style="1" customWidth="true"/>
+    <col min="9" max="9" width="23.25" style="1" customWidth="true"/>
+    <col min="10" max="10" width="15" style="1" customWidth="true"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="14.625" style="1" customWidth="true"/>
+    <col min="13" max="13" width="11.625" style="1" customWidth="true"/>
+    <col min="14" max="14" width="15.625" style="1" customWidth="true"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="1" customFormat="true" ht="18" customHeight="true"/>
+    <row r="3" s="1" customFormat="true" spans="5:9">
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" s="1" customFormat="true" spans="5:9">
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" s="1" customFormat="true" spans="5:9">
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="20"/>
+    </row>
+    <row r="6" s="1" customFormat="true" spans="5:9">
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="18" customHeight="true" spans="5:9">
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" s="1" customFormat="true" ht="18" customHeight="true" spans="5:9">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" s="1" customFormat="true" ht="26" customHeight="true" spans="5:12">
+      <c r="E9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+    </row>
+    <row r="10" s="1" customFormat="true" ht="20" customHeight="true" spans="5:12">
+      <c r="E10" s="13">
+        <v>6500</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0.1359</v>
+      </c>
+      <c r="G10" s="24">
+        <v>1</v>
+      </c>
+      <c r="H10" s="24">
+        <v>718.25</v>
+      </c>
+      <c r="I10" s="25">
+        <f t="shared" ref="I10:I19" si="0">H10/(1+$F$10)^(G10/12)</f>
+        <v>710.663416952135</v>
+      </c>
+      <c r="J10" s="46"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" s="1" customFormat="true" ht="20.25" spans="5:12">
+      <c r="E11" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="38">
+        <f>E10-SUM(I10:I19)</f>
+        <v>0.0873053952700502</v>
+      </c>
+      <c r="G11" s="24">
+        <v>2</v>
+      </c>
+      <c r="H11" s="24">
+        <v>713.47</v>
+      </c>
+      <c r="I11" s="25">
+        <f t="shared" si="0"/>
+        <v>698.477413000379</v>
+      </c>
+      <c r="J11" s="46"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" s="1" customFormat="true" ht="20.25" spans="2:12">
+      <c r="B12" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="24">
+        <v>3</v>
+      </c>
+      <c r="H12" s="24">
+        <v>706.42</v>
+      </c>
+      <c r="I12" s="25">
+        <f t="shared" si="0"/>
+        <v>684.270727255793</v>
+      </c>
+      <c r="J12" s="46"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+    </row>
+    <row r="13" s="1" customFormat="true" ht="20.25" spans="2:12">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="24">
+        <v>4</v>
+      </c>
+      <c r="H13" s="24">
+        <v>697.78</v>
+      </c>
+      <c r="I13" s="25">
+        <f t="shared" si="0"/>
+        <v>668.76235362458</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="20.25" spans="2:12">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="24">
+        <v>5</v>
+      </c>
+      <c r="H14" s="24">
+        <v>692.32</v>
+      </c>
+      <c r="I14" s="25">
+        <f t="shared" si="0"/>
+        <v>656.520819669993</v>
+      </c>
+      <c r="J14" s="46"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="20.25" spans="5:12">
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="24">
+        <v>6</v>
+      </c>
+      <c r="H15" s="24">
+        <v>684.13</v>
+      </c>
+      <c r="I15" s="25">
+        <f t="shared" si="0"/>
+        <v>641.901788077786</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="20.25" spans="5:12">
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="24">
+        <v>7</v>
+      </c>
+      <c r="H16" s="24">
+        <v>678.21</v>
+      </c>
+      <c r="I16" s="25">
+        <f t="shared" si="0"/>
+        <v>629.625725505427</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="20.25" spans="5:12">
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="24">
+        <v>8</v>
+      </c>
+      <c r="H17" s="24">
+        <v>671.16</v>
+      </c>
+      <c r="I17" s="25">
+        <f t="shared" si="0"/>
+        <v>616.49941053192</v>
+      </c>
+      <c r="J17" s="46"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" s="1" customFormat="true" ht="20.25" spans="5:12">
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="24">
+        <v>9</v>
+      </c>
+      <c r="H18" s="24">
+        <v>662.74</v>
+      </c>
+      <c r="I18" s="25">
+        <f t="shared" si="0"/>
+        <v>602.335012818069</v>
+      </c>
+      <c r="J18" s="46"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+    </row>
+    <row r="19" s="1" customFormat="true" ht="21" spans="5:12">
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="26">
+        <v>10</v>
+      </c>
+      <c r="H19" s="26">
+        <v>657.05</v>
+      </c>
+      <c r="I19" s="27">
+        <f t="shared" si="0"/>
+        <v>590.856027168649</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" s="1" customFormat="true" ht="20.25" spans="11:12">
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="20.25" spans="6:11">
+      <c r="F21" s="36"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="39"/>
+    </row>
+    <row r="22" s="1" customFormat="true" spans="6:6">
+      <c r="F22" s="41"/>
+    </row>
+    <row r="24" s="1" customFormat="true" ht="14.25"/>
+    <row r="25" s="1" customFormat="true" ht="21" spans="5:6">
+      <c r="E25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="true" ht="20.25" spans="5:6">
+      <c r="E26" s="42">
+        <v>0</v>
+      </c>
+      <c r="F26" s="33">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="true" ht="20.25" spans="5:6">
+      <c r="E27" s="42">
+        <v>1</v>
+      </c>
+      <c r="F27" s="25">
+        <f t="shared" ref="F27:F36" si="1">0-H10</f>
+        <v>-718.25</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="true" ht="20.25" spans="5:6">
+      <c r="E28" s="42">
+        <v>2</v>
+      </c>
+      <c r="F28" s="25">
+        <f t="shared" si="1"/>
+        <v>-713.47</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="true" ht="20.25" spans="5:6">
+      <c r="E29" s="42">
+        <v>3</v>
+      </c>
+      <c r="F29" s="25">
+        <f t="shared" si="1"/>
+        <v>-706.42</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="true" ht="20.25" spans="2:12">
+      <c r="B30" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="42">
+        <v>4</v>
+      </c>
+      <c r="F30" s="25">
+        <f t="shared" si="1"/>
+        <v>-697.78</v>
+      </c>
+      <c r="L30" s="47"/>
+    </row>
+    <row r="31" s="1" customFormat="true" ht="20.25" spans="2:6">
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="42">
+        <v>5</v>
+      </c>
+      <c r="F31" s="25">
+        <f t="shared" si="1"/>
+        <v>-692.32</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="true" ht="20.25" spans="2:6">
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="42">
+        <v>6</v>
+      </c>
+      <c r="F32" s="25">
+        <f t="shared" si="1"/>
+        <v>-684.13</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="true" ht="20.25" spans="5:6">
+      <c r="E33" s="42">
+        <v>7</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" si="1"/>
+        <v>-678.21</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="true" ht="20.25" spans="5:6">
+      <c r="E34" s="42">
+        <v>8</v>
+      </c>
+      <c r="F34" s="25">
+        <f t="shared" si="1"/>
+        <v>-671.16</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="true" ht="20.25" spans="5:6">
+      <c r="E35" s="42">
+        <v>9</v>
+      </c>
+      <c r="F35" s="25">
+        <f t="shared" si="1"/>
+        <v>-662.74</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="true" ht="21" spans="5:6">
+      <c r="E36" s="42">
+        <v>10</v>
+      </c>
+      <c r="F36" s="25">
+        <f t="shared" si="1"/>
+        <v>-657.05</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="true" ht="20.25" spans="5:6">
+      <c r="E37" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="44">
+        <f>IRR(F26:F36)</f>
+        <v>0.0106728059338588</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="true" ht="21" spans="5:6">
+      <c r="E38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="45">
+        <f>(1+F37)^12-1</f>
+        <v>0.135865644703054</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E3:I7"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B30:C32"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C2:M35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="7.125" style="1" customWidth="true"/>
+    <col min="3" max="3" width="13.5" style="1" customWidth="true"/>
+    <col min="4" max="5" width="13.75" style="1" customWidth="true"/>
+    <col min="6" max="6" width="13" style="1" customWidth="true"/>
+    <col min="7" max="7" width="16.625" style="1" customWidth="true"/>
+    <col min="8" max="8" width="15.375" style="1" customWidth="true"/>
+    <col min="9" max="11" width="10.875" style="1" customWidth="true"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="13.25" style="1" customWidth="true"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="1" customFormat="true" ht="14.25"/>
+    <row r="3" s="1" customFormat="true" spans="3:8">
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" s="1" customFormat="true" spans="3:8">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="31" customHeight="true" spans="3:8">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" s="1" customFormat="true" spans="3:8">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="58" customHeight="true" spans="3:8">
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" s="1" customFormat="true" ht="58" customHeight="true" spans="3:8">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" s="1" customFormat="true" ht="14.25"/>
+    <row r="10" s="1" customFormat="true" ht="30" customHeight="true" spans="3:13">
+      <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="true" ht="26" customHeight="true" spans="3:13">
+      <c r="C11" s="11">
+        <v>6299</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.147</v>
+      </c>
+      <c r="E11" s="23">
+        <f>C11-SUM(H11:H34)</f>
+        <v>-0.219196016520982</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1</v>
+      </c>
+      <c r="G11" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H11" s="25">
+        <f t="shared" ref="H11:H34" si="0">G11/(1+$D$11)^(F11/12)</f>
+        <v>298.399977161517</v>
+      </c>
+      <c r="J11" s="28">
+        <f>(1+K11)^12-1</f>
+        <v>0.147040070974295</v>
+      </c>
+      <c r="K11" s="29">
+        <f>IRR(M11:M35)</f>
+        <v>0.011497660191677</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0</v>
+      </c>
+      <c r="M11" s="32">
+        <v>6299</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="24">
+        <v>2</v>
+      </c>
+      <c r="G12" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H12" s="25">
+        <f t="shared" si="0"/>
+        <v>295.008933406202</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="24">
+        <v>1</v>
+      </c>
+      <c r="M12" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="24">
+        <v>3</v>
+      </c>
+      <c r="G13" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H13" s="25">
+        <f t="shared" si="0"/>
+        <v>291.656425772304</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="24">
+        <v>2</v>
+      </c>
+      <c r="M13" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="24">
+        <v>4</v>
+      </c>
+      <c r="G14" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H14" s="25">
+        <f t="shared" si="0"/>
+        <v>288.342016331926</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="24">
+        <v>3</v>
+      </c>
+      <c r="M14" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="24">
+        <v>5</v>
+      </c>
+      <c r="G15" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H15" s="25">
+        <f t="shared" si="0"/>
+        <v>285.065272133825</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="24">
+        <v>4</v>
+      </c>
+      <c r="M15" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="24">
+        <v>6</v>
+      </c>
+      <c r="G16" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" si="0"/>
+        <v>281.825765146855</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="24">
+        <v>5</v>
+      </c>
+      <c r="M16" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="24">
+        <v>7</v>
+      </c>
+      <c r="G17" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="0"/>
+        <v>278.623072204051</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="24">
+        <v>6</v>
+      </c>
+      <c r="M17" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="24">
+        <v>8</v>
+      </c>
+      <c r="G18" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H18" s="25">
+        <f t="shared" si="0"/>
+        <v>275.456774947356</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="24">
+        <v>7</v>
+      </c>
+      <c r="M18" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="24">
+        <v>9</v>
+      </c>
+      <c r="G19" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" si="0"/>
+        <v>272.326459772973</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="24">
+        <v>8</v>
+      </c>
+      <c r="M19" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="24">
+        <v>10</v>
+      </c>
+      <c r="G20" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H20" s="25">
+        <f t="shared" si="0"/>
+        <v>269.231717777332</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="24">
+        <v>9</v>
+      </c>
+      <c r="M20" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="24">
+        <v>11</v>
+      </c>
+      <c r="G21" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="0"/>
+        <v>266.17214470368</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="24">
+        <v>10</v>
+      </c>
+      <c r="M21" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="24">
+        <v>12</v>
+      </c>
+      <c r="G22" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H22" s="25">
+        <f t="shared" si="0"/>
+        <v>263.147340889276</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="24">
+        <v>11</v>
+      </c>
+      <c r="M22" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="24">
+        <v>13</v>
+      </c>
+      <c r="G23" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H23" s="25">
+        <f t="shared" si="0"/>
+        <v>260.15691121318</v>
+      </c>
+      <c r="I23" s="30"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="24">
+        <v>12</v>
+      </c>
+      <c r="M23" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="24">
+        <v>14</v>
+      </c>
+      <c r="G24" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H24" s="25">
+        <f t="shared" si="0"/>
+        <v>257.20046504464</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="24">
+        <v>13</v>
+      </c>
+      <c r="M24" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="24">
+        <v>15</v>
+      </c>
+      <c r="G25" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H25" s="25">
+        <f t="shared" si="0"/>
+        <v>254.277616192069</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="24">
+        <v>14</v>
+      </c>
+      <c r="M25" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="24">
+        <v>16</v>
+      </c>
+      <c r="G26" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H26" s="25">
+        <f t="shared" si="0"/>
+        <v>251.387982852594</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="24">
+        <v>15</v>
+      </c>
+      <c r="M26" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="24">
+        <v>17</v>
+      </c>
+      <c r="G27" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H27" s="25">
+        <f t="shared" si="0"/>
+        <v>248.531187562184</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="24">
+        <v>16</v>
+      </c>
+      <c r="M27" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="24">
+        <v>18</v>
+      </c>
+      <c r="G28" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H28" s="25">
+        <f t="shared" si="0"/>
+        <v>245.706857146343</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="24">
+        <v>17</v>
+      </c>
+      <c r="M28" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="24">
+        <v>19</v>
+      </c>
+      <c r="G29" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H29" s="25">
+        <f t="shared" si="0"/>
+        <v>242.914622671361</v>
+      </c>
+      <c r="I29" s="30"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="24">
+        <v>18</v>
+      </c>
+      <c r="M29" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="24">
+        <v>20</v>
+      </c>
+      <c r="G30" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H30" s="25">
+        <f t="shared" si="0"/>
+        <v>240.154119396126</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="24">
+        <v>19</v>
+      </c>
+      <c r="M30" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="24">
+        <v>21</v>
+      </c>
+      <c r="G31" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H31" s="25">
+        <f t="shared" si="0"/>
+        <v>237.424986724475</v>
+      </c>
+      <c r="I31" s="30"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="24">
+        <v>20</v>
+      </c>
+      <c r="M31" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="24">
+        <v>22</v>
+      </c>
+      <c r="G32" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H32" s="25">
+        <f t="shared" si="0"/>
+        <v>234.726868158092</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="24">
+        <v>21</v>
+      </c>
+      <c r="M32" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="true" ht="20.25" spans="3:13">
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="24">
+        <v>23</v>
+      </c>
+      <c r="G33" s="24">
+        <v>301.83</v>
+      </c>
+      <c r="H33" s="25">
+        <f t="shared" si="0"/>
+        <v>232.059411249939</v>
+      </c>
+      <c r="I33" s="30"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="24">
+        <v>22</v>
+      </c>
+      <c r="M33" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="true" ht="21" spans="3:13">
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="26">
+        <v>24</v>
+      </c>
+      <c r="G34" s="26">
+        <v>301.83</v>
+      </c>
+      <c r="H34" s="27">
+        <f t="shared" si="0"/>
+        <v>229.422267558218</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="24">
+        <v>23</v>
+      </c>
+      <c r="M34" s="33">
+        <v>-301.83</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="true" ht="21" spans="10:13">
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="26">
+        <v>24</v>
+      </c>
+      <c r="M35" s="34">
+        <v>-301.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:H7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>